--- a/DMEA.xlsx
+++ b/DMEA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE59A9B-2890-478B-8015-734C1F9A508C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCF93D-8CBF-4FC2-ACA5-175845C4091A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="1500" windowWidth="8760" windowHeight="8715" firstSheet="1" activeTab="1" xr2:uid="{6B85F0E5-5E18-4F96-8F1E-00ECAAD1B895}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" xr2:uid="{6B85F0E5-5E18-4F96-8F1E-00ECAAD1B895}"/>
   </bookViews>
   <sheets>
     <sheet name="dmeaof_5_altamash" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,9 +181,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,11 +507,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705EDD2-775F-4F25-AE74-361AC3894E22}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -576,222 +580,188 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>3.65</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>276.8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>38.26</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>3.8260000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>3826000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>276.91993259742202</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I5" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="5">
         <v>2.1220980528369182E-10</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J5" si="1">H2-D2</f>
+      <c r="J2" s="5">
         <v>0.11993259742200735</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">(H2-D2)/(H2*D2)</f>
         <v>1.5646490343734232E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>2.8882537798163412E-6</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">AVERAGE(K2:K5)</f>
         <v>5.5182139781198336E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="4">100*L2/M2</f>
         <v>52.340373013234021</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O5" si="5">LN(F2)</f>
+      <c r="O2" s="6">
         <v>1.3418198710180611</v>
       </c>
-      <c r="P2" s="8">
-        <f t="shared" ref="P2:P5" si="6">1/D2</f>
+      <c r="P2" s="6">
         <v>3.6127167630057803E-3</v>
       </c>
-      <c r="Q2" s="8">
-        <f t="shared" ref="Q2:Q5" si="7">1/H2</f>
+      <c r="Q2" s="6">
         <v>3.6111521139714068E-3</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2" si="8">SLOPE(O2:O5,P2:P5)</f>
         <v>-8766.6169380499596</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8311.4409324175558</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="9">100*ABS(S2-R2)/ABS(S2)</f>
         <v>5.4764993138200202</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>7.26</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>280.41000000000003</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>57.3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>5.73</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>5730000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>280.9524775097899</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
+      <c r="I3" s="5">
         <v>2.7153390647072229E-11</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
+      <c r="J3" s="5">
         <v>0.54247750978987597</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>6.8858153771136807E-6</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="5"/>
+      <c r="O3" s="6">
         <v>1.7457155307266483</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" si="6"/>
+      <c r="P3" s="6">
         <v>3.5662066260119109E-3</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q3" s="6">
         <v>3.5593208106347971E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>10.11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>283.26</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>76.959999999999994</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>7.6959999999999997</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>7696000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>283.69114406777135</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
         <v>1.2898127010885219E-11</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
+      <c r="J4" s="5">
         <v>0.43114406777135628</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>5.3652675690975635E-6</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" si="5"/>
+      <c r="O4" s="6">
         <v>2.0407007133634054</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" si="6"/>
+      <c r="P4" s="6">
         <v>3.5303254960107324E-3</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q4" s="6">
         <v>3.5249602284416347E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>11.82</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>284.97000000000003</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>95.96</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>9.5960000000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>9596000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>285.6421252345732</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
+      <c r="I5" s="5">
         <v>8.1161743992197444E-11</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" si="1"/>
+      <c r="J5" s="5">
         <v>0.67212523457317275</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>8.2571239318946665E-6</v>
       </c>
-      <c r="O5" s="8">
-        <f t="shared" si="5"/>
+      <c r="O5" s="6">
         <v>2.261346344977448</v>
       </c>
-      <c r="P5" s="8">
-        <f t="shared" si="6"/>
+      <c r="P5" s="6">
         <v>3.509141313120679E-3</v>
       </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="7"/>
+      <c r="Q5" s="6">
         <v>3.5008841891887845E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -800,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11909D8D-9311-4610-9E7F-9C240AFB9E69}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,176 +839,148 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>6.44</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>279.58999999999997</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>60.554000000000002</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>6.0553999999999997</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>6055400</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>281.47788998607064</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I4" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
+      <c r="I2" s="5">
         <v>5.7047699897339044E-11</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J4" si="1">H2-D2</f>
+      <c r="J2" s="5">
         <v>1.8878899860706611</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K4" si="2">(H2-D2)/(H2*D2)</f>
         <v>2.3988923635523107E-5</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K4)</f>
         <v>2.41591683202411E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K4)</f>
         <v>2.2794688377093055E-5</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
         <v>10.598595567781151</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O4" si="4">LN(F2)</f>
+      <c r="O2" s="6">
         <v>1.8009504359296402</v>
       </c>
-      <c r="P2" s="8">
-        <f t="shared" ref="P2:P4" si="5">1/D2</f>
+      <c r="P2" s="6">
         <v>3.5766658321113062E-3</v>
       </c>
-      <c r="Q2" s="8">
-        <f t="shared" ref="Q2:Q4" si="6">1/H2</f>
+      <c r="Q2" s="6">
         <v>3.5526769084757832E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O4,P2:P4)</f>
         <v>-9044.9431940506238</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O4,Q2:Q4)</f>
         <v>-8975.7632379471015</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>0.77074176612689727</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>8.6199999999999992</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>281.77</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>74.260000000000005</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>7.4260000000000002</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>7426000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>283.36802784394399</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
+      <c r="I3" s="5">
         <v>-7.5283779210622015E-11</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
+      <c r="J3" s="5">
         <v>1.5980278439440099</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>2.0014223375172693E-5</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" si="4"/>
+      <c r="O3" s="6">
         <v>2.0049873557548885</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" si="5"/>
+      <c r="P3" s="6">
         <v>3.5489938602406221E-3</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="6"/>
+      <c r="Q3" s="6">
         <v>3.5289796368654495E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>11.077999999999999</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>284.22800000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>102.5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>10.25</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>10250000</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>286.21137026523138</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
         <v>-8.7752027866372373E-13</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
+      <c r="J4" s="5">
         <v>1.9833702652313718</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>2.4380918120583365E-5</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" si="4"/>
+      <c r="O4" s="6">
         <v>2.3272777055844172</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" si="5"/>
+      <c r="P4" s="6">
         <v>3.5183022080864657E-3</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="6"/>
+      <c r="Q4" s="6">
         <v>3.4939212899658821E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>